--- a/Doc/H Gregorio Marañón - Protocols Covid-19 v1.4.xlsx
+++ b/Doc/H Gregorio Marañón - Protocols Covid-19 v1.4.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://manpowergroupapps.sharepoint.com/teams/CovidWarriors/Shared Documents/General/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hgugmciberexperis\Documents\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="14_{BD00BD94-263B-436C-AF2D-0801CA984E97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6323A7C1-C251-4401-9347-B21528105618}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Pipetas Gregorio Marañón" sheetId="3" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Pipetas Gregorio Marañón'!$E$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="77">
   <si>
     <t>Robots OT-2 Gregorio Marañón</t>
   </si>
@@ -272,7 +271,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -442,7 +441,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="72">
+  <borders count="70">
     <border>
       <left/>
       <right/>
@@ -1298,8 +1297,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="hair">
+        <color rgb="FF000000"/>
       </left>
       <right style="hair">
         <color rgb="FF000000"/>
@@ -1316,36 +1315,8 @@
       <left style="hair">
         <color rgb="FF000000"/>
       </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
@@ -1564,10 +1535,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1683,13 +1651,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1706,8 +1671,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1745,6 +1710,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1961,29 +1932,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F4C398-D6D5-4B72-A858-29385BCF5C88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1018"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.69921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="31.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.75" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.3984375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="9.3984375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="9.3984375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="1.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="6.09765625" style="2" customWidth="1"/>
-    <col min="16" max="17" width="9.3984375" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="12.59765625" style="2"/>
+    <col min="6" max="6" width="9.375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="1.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.125" style="2" customWidth="1"/>
+    <col min="16" max="17" width="9.375" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="12.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1994,7 +1967,7 @@
       <c r="N1"/>
       <c r="O1"/>
     </row>
-    <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="12" t="s">
         <v>75</v>
       </c>
@@ -2011,46 +1984,46 @@
         <v>4</v>
       </c>
       <c r="J2" s="33"/>
-      <c r="K2" s="85" t="s">
+      <c r="K2" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="82"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="83"/>
-    </row>
-    <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="81"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="82"/>
+    </row>
+    <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="128"/>
+      <c r="C3" s="126"/>
       <c r="D3" s="15"/>
       <c r="E3" s="35"/>
       <c r="F3" s="25"/>
       <c r="G3" s="16"/>
       <c r="H3" s="48"/>
       <c r="J3" s="33"/>
-      <c r="K3" s="86" t="s">
+      <c r="K3" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="86" t="s">
+      <c r="L3" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="86" t="s">
+      <c r="M3" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="86" t="s">
+      <c r="N3" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="86" t="s">
+      <c r="O3" s="85" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="129"/>
+      <c r="C4" s="127"/>
       <c r="D4" s="10"/>
       <c r="E4" s="36"/>
       <c r="F4" s="26"/>
@@ -2059,17 +2032,17 @@
       <c r="J4" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="94" t="s">
+      <c r="K4" s="93" t="s">
         <v>70</v>
       </c>
       <c r="L4" s="1"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="93" t="s">
+      <c r="M4" s="86"/>
+      <c r="N4" s="92" t="s">
         <v>71</v>
       </c>
       <c r="O4" s="59"/>
     </row>
-    <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
         <v>25</v>
       </c>
@@ -2090,17 +2063,17 @@
       <c r="J5" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="K5" s="94" t="s">
+      <c r="K5" s="93" t="s">
         <v>70</v>
       </c>
       <c r="L5" s="1"/>
-      <c r="M5" s="95" t="s">
+      <c r="M5" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="N5" s="88"/>
+      <c r="N5" s="87"/>
       <c r="O5" s="59"/>
     </row>
-    <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
         <v>27</v>
       </c>
@@ -2121,21 +2094,21 @@
       <c r="J6" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="K6" s="103" t="s">
+      <c r="K6" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="L6" s="102" t="s">
+      <c r="L6" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="M6" s="104" t="s">
+      <c r="M6" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="N6" s="105" t="s">
+      <c r="N6" s="104" t="s">
         <v>71</v>
       </c>
       <c r="O6" s="61"/>
     </row>
-    <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
         <v>26</v>
       </c>
@@ -2157,20 +2130,20 @@
         <v>65</v>
       </c>
       <c r="K7" s="66"/>
-      <c r="L7" s="106" t="s">
+      <c r="L7" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="M7" s="96" t="s">
+      <c r="M7" s="95" t="s">
         <v>71</v>
       </c>
       <c r="N7" s="68"/>
       <c r="O7" s="67"/>
     </row>
-    <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="129"/>
+      <c r="C8" s="127"/>
       <c r="D8" s="10"/>
       <c r="E8" s="36"/>
       <c r="F8" s="26"/>
@@ -2181,15 +2154,15 @@
       </c>
       <c r="K8" s="58"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="107" t="s">
+      <c r="M8" s="106" t="s">
         <v>71</v>
       </c>
       <c r="N8" s="57"/>
-      <c r="O8" s="97" t="s">
+      <c r="O8" s="96" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="17" t="s">
         <v>29</v>
       </c>
@@ -2207,20 +2180,20 @@
         <v>23</v>
       </c>
       <c r="H9" s="50"/>
-      <c r="J9" s="108" t="s">
+      <c r="J9" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="K9" s="109"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="99" t="s">
+      <c r="K9" s="108"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="N9" s="111"/>
-      <c r="O9" s="112"/>
-    </row>
-    <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N9" s="110"/>
+      <c r="O9" s="111"/>
+    </row>
+    <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="18"/>
-      <c r="C10" s="130"/>
+      <c r="C10" s="128"/>
       <c r="D10" s="23" t="s">
         <v>11</v>
       </c>
@@ -2235,17 +2208,21 @@
       <c r="J10" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="72"/>
-      <c r="L10" s="113"/>
-      <c r="M10" s="114"/>
-      <c r="N10" s="115"/>
-      <c r="O10" s="73"/>
-    </row>
-    <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K10" s="135" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" s="112"/>
+      <c r="M10" s="113"/>
+      <c r="N10" s="136" t="s">
+        <v>71</v>
+      </c>
+      <c r="O10" s="72"/>
+    </row>
+    <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="131"/>
+      <c r="C11" s="129"/>
       <c r="D11" s="22" t="s">
         <v>13</v>
       </c>
@@ -2264,17 +2241,17 @@
       </c>
       <c r="K11" s="62"/>
       <c r="L11" s="63"/>
-      <c r="M11" s="100" t="s">
+      <c r="M11" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="N11" s="101" t="s">
+      <c r="N11" s="100" t="s">
         <v>70</v>
       </c>
       <c r="O11" s="64"/>
     </row>
-    <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
-      <c r="C12" s="130"/>
+      <c r="C12" s="128"/>
       <c r="D12" s="23" t="s">
         <v>14</v>
       </c>
@@ -2289,30 +2266,30 @@
       <c r="J12" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="74">
+      <c r="K12" s="73">
         <f>COUNTA(K4:K11)</f>
-        <v>3</v>
-      </c>
-      <c r="L12" s="75">
+        <v>4</v>
+      </c>
+      <c r="L12" s="74">
         <f t="shared" ref="L12:O12" si="0">COUNTA(L4:L11)</f>
         <v>2</v>
       </c>
-      <c r="M12" s="76">
+      <c r="M12" s="75">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="N12" s="77">
+      <c r="N12" s="76">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O12" s="76">
+        <v>4</v>
+      </c>
+      <c r="O12" s="75">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="18"/>
-      <c r="C13" s="130"/>
+      <c r="C13" s="128"/>
       <c r="D13" s="23" t="s">
         <v>15</v>
       </c>
@@ -2327,27 +2304,27 @@
       <c r="J13" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="89">
+      <c r="K13" s="88">
         <v>9</v>
       </c>
-      <c r="L13" s="90">
+      <c r="L13" s="89">
         <v>4</v>
       </c>
-      <c r="M13" s="91">
+      <c r="M13" s="90">
         <v>6</v>
       </c>
-      <c r="N13" s="92">
+      <c r="N13" s="91">
         <v>4</v>
       </c>
-      <c r="O13" s="91">
+      <c r="O13" s="90">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="129"/>
+      <c r="C14" s="127"/>
       <c r="D14" s="10"/>
       <c r="E14" s="36"/>
       <c r="F14" s="26"/>
@@ -2356,28 +2333,28 @@
       <c r="J14" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="78">
+      <c r="K14" s="77">
         <f t="shared" ref="K14:O14" si="1">K13-K12</f>
-        <v>6</v>
-      </c>
-      <c r="L14" s="79">
+        <v>5</v>
+      </c>
+      <c r="L14" s="78">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M14" s="80">
+      <c r="M14" s="79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N14" s="81">
+      <c r="N14" s="80">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O14" s="80">
+        <v>0</v>
+      </c>
+      <c r="O14" s="79">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
         <v>31</v>
       </c>
@@ -2396,7 +2373,7 @@
       </c>
       <c r="H15" s="50"/>
     </row>
-    <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
         <v>34</v>
       </c>
@@ -2415,11 +2392,11 @@
       </c>
       <c r="H16" s="50"/>
     </row>
-    <row r="17" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="131"/>
+      <c r="C17" s="129"/>
       <c r="D17" s="22" t="s">
         <v>13</v>
       </c>
@@ -2434,9 +2411,9 @@
       </c>
       <c r="H17" s="50"/>
     </row>
-    <row r="18" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="18"/>
-      <c r="C18" s="130"/>
+      <c r="C18" s="128"/>
       <c r="D18" s="23" t="s">
         <v>14</v>
       </c>
@@ -2449,9 +2426,9 @@
       </c>
       <c r="H18" s="51"/>
     </row>
-    <row r="19" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="20"/>
-      <c r="C19" s="132"/>
+      <c r="C19" s="130"/>
       <c r="D19" s="24" t="s">
         <v>15</v>
       </c>
@@ -2464,22 +2441,22 @@
       </c>
       <c r="H19" s="52"/>
     </row>
-    <row r="20" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="129"/>
+      <c r="C20" s="127"/>
       <c r="D20" s="10"/>
       <c r="E20" s="36"/>
       <c r="F20" s="26"/>
       <c r="G20" s="11"/>
       <c r="H20" s="49"/>
     </row>
-    <row r="21" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="133" t="s">
+      <c r="C21" s="131" t="s">
         <v>73</v>
       </c>
       <c r="D21" s="22" t="s">
@@ -2498,22 +2475,22 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="129"/>
+      <c r="C22" s="127"/>
       <c r="D22" s="10"/>
       <c r="E22" s="36"/>
       <c r="F22" s="26"/>
       <c r="G22" s="11"/>
       <c r="H22" s="49"/>
     </row>
-    <row r="23" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="133" t="s">
+      <c r="C23" s="131" t="s">
         <v>76</v>
       </c>
       <c r="D23" s="22" t="s">
@@ -2532,18 +2509,18 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="129"/>
+      <c r="C24" s="127"/>
       <c r="D24" s="10"/>
       <c r="E24" s="36"/>
       <c r="F24" s="26"/>
       <c r="G24" s="11"/>
       <c r="H24" s="49"/>
     </row>
-    <row r="25" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="17" t="s">
         <v>59</v>
       </c>
@@ -2560,9 +2537,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18"/>
-      <c r="C26" s="130"/>
+      <c r="C26" s="128"/>
       <c r="D26" s="23"/>
       <c r="E26" s="38"/>
       <c r="F26" s="28"/>
@@ -2573,29 +2550,29 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="128"/>
+      <c r="C27" s="126"/>
       <c r="D27" s="15"/>
       <c r="E27" s="35"/>
       <c r="F27" s="25"/>
       <c r="G27" s="16"/>
       <c r="H27" s="48"/>
     </row>
-    <row r="28" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="129"/>
+      <c r="C28" s="127"/>
       <c r="D28" s="10"/>
       <c r="E28" s="36"/>
       <c r="F28" s="26"/>
       <c r="G28" s="11"/>
       <c r="H28" s="49"/>
     </row>
-    <row r="29" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>36</v>
       </c>
@@ -2616,7 +2593,7 @@
       </c>
       <c r="H29" s="53"/>
     </row>
-    <row r="30" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
       <c r="C30" s="40" t="s">
         <v>22</v>
@@ -2633,75 +2610,75 @@
       </c>
       <c r="H30" s="53"/>
     </row>
-    <row r="31" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="129"/>
-      <c r="D31" s="98"/>
+      <c r="C31" s="127"/>
+      <c r="D31" s="97"/>
       <c r="E31" s="36"/>
       <c r="F31" s="26"/>
       <c r="G31" s="11"/>
       <c r="H31" s="49"/>
     </row>
-    <row r="32" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="122" t="s">
+    <row r="32" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="120" t="s">
         <v>40</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="123" t="s">
+      <c r="D32" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="124" t="s">
+      <c r="E32" s="122" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="125">
+      <c r="F32" s="123">
         <v>12</v>
       </c>
-      <c r="G32" s="126" t="s">
+      <c r="G32" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="H32" s="127"/>
-    </row>
-    <row r="33" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="116" t="s">
+      <c r="H32" s="125"/>
+    </row>
+    <row r="33" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="134" t="s">
+      <c r="C33" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="117" t="s">
+      <c r="D33" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="118" t="s">
+      <c r="E33" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="F33" s="119">
+      <c r="F33" s="117">
         <v>8</v>
       </c>
-      <c r="G33" s="120" t="s">
+      <c r="G33" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="121"/>
-    </row>
-    <row r="34" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="119"/>
+    </row>
+    <row r="34" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="129"/>
-      <c r="D34" s="98"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="97"/>
       <c r="E34" s="36"/>
       <c r="F34" s="26"/>
       <c r="G34" s="11"/>
       <c r="H34" s="49"/>
     </row>
-    <row r="35" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="135" t="s">
+      <c r="C35" s="133" t="s">
         <v>73</v>
       </c>
       <c r="D35" s="8" t="s">
@@ -2718,22 +2695,22 @@
       </c>
       <c r="H35" s="53"/>
     </row>
-    <row r="36" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="129"/>
+      <c r="C36" s="127"/>
       <c r="D36" s="10"/>
       <c r="E36" s="36"/>
       <c r="F36" s="26"/>
       <c r="G36" s="11"/>
       <c r="H36" s="49"/>
     </row>
-    <row r="37" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="135" t="s">
+      <c r="C37" s="133" t="s">
         <v>72</v>
       </c>
       <c r="D37" s="8" t="s">
@@ -2750,11 +2727,11 @@
       </c>
       <c r="H37" s="53"/>
     </row>
-    <row r="38" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="135" t="s">
+      <c r="C38" s="133" t="s">
         <v>73</v>
       </c>
       <c r="D38" s="8" t="s">
@@ -2771,11 +2748,11 @@
       </c>
       <c r="H38" s="53"/>
     </row>
-    <row r="39" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="135" t="s">
+      <c r="C39" s="133" t="s">
         <v>73</v>
       </c>
       <c r="D39" s="8" t="s">
@@ -2792,22 +2769,22 @@
       </c>
       <c r="H39" s="53"/>
     </row>
-    <row r="40" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="129"/>
+      <c r="C40" s="127"/>
       <c r="D40" s="10"/>
       <c r="E40" s="36"/>
       <c r="F40" s="26"/>
       <c r="G40" s="11"/>
       <c r="H40" s="49"/>
     </row>
-    <row r="41" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="135" t="s">
+      <c r="C41" s="133" t="s">
         <v>73</v>
       </c>
       <c r="D41" s="8"/>
@@ -2822,18 +2799,18 @@
       </c>
       <c r="H41" s="53"/>
     </row>
-    <row r="42" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="129"/>
+      <c r="C42" s="127"/>
       <c r="D42" s="10"/>
       <c r="E42" s="36"/>
       <c r="F42" s="26"/>
       <c r="G42" s="11"/>
       <c r="H42" s="49"/>
     </row>
-    <row r="43" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="17" t="s">
         <v>55</v>
       </c>
@@ -2852,9 +2829,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="42"/>
-      <c r="C44" s="136"/>
+      <c r="C44" s="134"/>
       <c r="D44" s="43"/>
       <c r="E44" s="44"/>
       <c r="F44" s="45"/>
@@ -2865,980 +2842,980 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1001" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1002" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1003" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1004" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1005" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1006" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1007" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1008" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1009" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1010" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1011" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1012" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1013" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1014" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1015" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1016" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1017" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1018" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1003" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1004" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1005" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1006" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1007" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1008" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1009" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1010" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1011" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1012" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1013" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1014" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1015" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1016" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1017" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1018" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3846,6 +3823,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101008F8B75A318D4E347886405A5D1655DB9" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="38382a7cbdc693fb81417b1cd498a6fa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cbad2f04-2e1b-4323-a451-8a3c1ab489f1" xmlns:ns3="e32ceb7d-0dab-4cab-b5ad-81a4b059f127" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="34e4c400e026145987c1410c57e063cb" ns2:_="" ns3:_="">
     <xsd:import namespace="cbad2f04-2e1b-4323-a451-8a3c1ab489f1"/>
@@ -4034,23 +4026,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F0CA686-CE9B-4D2A-971A-EEB6FCEF22BE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D970EE98-359A-4F8B-872C-5E8664778091}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4062,10 +4044,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D970EE98-359A-4F8B-872C-5E8664778091}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F0CA686-CE9B-4D2A-971A-EEB6FCEF22BE}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cbad2f04-2e1b-4323-a451-8a3c1ab489f1"/>
+    <ds:schemaRef ds:uri="e32ceb7d-0dab-4cab-b5ad-81a4b059f127"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>